--- a/Hashing Methods Iteration Results.xlsx
+++ b/Hashing Methods Iteration Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yiğit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\hashing-comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0230D41-9DFF-44BA-8B9F-F8CCA029A1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14EFA60-C5F4-4CAA-8AC3-E0025BE9CA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{DA61DE9D-F3B5-45BE-A6F2-1EF7A66B207D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>c1</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>hash functions: 1 and 3</t>
-  </si>
-  <si>
-    <t>average</t>
   </si>
   <si>
     <t>dataset0</t>
@@ -144,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +162,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -276,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,10 +301,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,19 +1147,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -9369,34 +9372,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -27934,11 +27937,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE51DE3B-3476-492B-9E70-7E83F9EE1B2C}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -30095,8 +30101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5457FBE-32DA-4359-9C8B-C1928650AD48}">
   <dimension ref="A1:N501"/>
   <sheetViews>
-    <sheetView topLeftCell="E458" workbookViewId="0">
-      <selection activeCell="N485" sqref="N485"/>
+    <sheetView topLeftCell="A452" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M485" sqref="M485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30110,43 +30116,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -51169,13 +51175,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39639398-31F4-4890-ACFD-539437ED129D}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="7.140625" style="13"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -51193,80 +51202,103 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
+      <c r="K2" s="14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="14">
         <v>1234.75316666666</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="14">
         <v>1044.44966833333</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="14">
         <v>858.68316666666601</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="14">
         <v>966.43650000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="14">
         <v>1049.2996683333299</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="14">
         <v>1095.0358333333299</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="14">
         <v>891.17600000000004</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="14">
         <v>956.74666833333299</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="14">
         <v>933.83283500000005</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="14">
         <v>986.18700000000001</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="14">
         <f>AVERAGE(A3:J3)</f>
         <v>1001.6600506666649</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -51284,80 +51316,103 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>7</v>
+      <c r="K7" s="14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="14">
         <v>873.12633166666603</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="14">
         <v>927.76400000000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="14">
         <v>952.99916666666604</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="14">
         <v>920.18883333333304</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="14">
         <v>980.31049833333304</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="14">
         <v>1032.34016666666</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="14">
         <v>938.04</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="14">
         <v>1190.0603333333299</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="14">
         <v>1027.97299833333</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="14">
         <v>1018.545335</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="16">
         <f>AVERAGE(A8:J8)</f>
         <v>986.13476633333175</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
@@ -51375,80 +51430,116 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>7</v>
+      <c r="K12" s="14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="14">
         <v>828.702</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="14">
         <v>919.42916500000001</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="14">
         <v>853.74249999999995</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="14">
         <v>951.56633166666597</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="14">
         <v>893.96083166666597</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="14">
         <v>1026.52</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="14">
         <v>1018.87816666666</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="14">
         <v>992.01599833333296</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="14">
         <v>911.53883166666606</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="14">
         <v>1002.488835</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="14">
         <f>AVERAGE(A13:J13)</f>
         <v>939.88426599999912</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
